--- a/Akan/Ananse10/AkanEnglishAligned.xlsx
+++ b/Akan/Ananse10/AkanEnglishAligned.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Truth in Translation\Akan\Ananse10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4B787334-EF6C-4156-BFF7-BD4393BD176F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1073A60B-6300-4894-BF6A-CD57365196FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31680" yWindow="690" windowWidth="25935" windowHeight="15075" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30330" yWindow="2910" windowWidth="25515" windowHeight="11055" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>AKAN</t>
   </si>
@@ -52,9 +52,6 @@
     <t>Adeekyeye, na Nyankonpon 'ni Nsia afirim'.</t>
   </si>
   <si>
-    <t>Ye'see, "Ananse eno no o? " Ananse firii ho; wadwane.</t>
-  </si>
-  <si>
     <t>Kasa ne no nyam', Ananse adamfo papapa ne Okusie.</t>
   </si>
   <si>
@@ -130,9 +127,6 @@
     <t>Next morning, when things became visible, Nsia, the mother of Nyankonpon, the Sky-god, had departed.</t>
   </si>
   <si>
-    <t>They said, "Ananse, what about it? " Ananse left that place; he has fled.</t>
-  </si>
-  <si>
     <t>Now, speech and its left behinds (i. e. I forgot to mention that) Ananse's greatest friend was Okusie, the Rat.</t>
   </si>
   <si>
@@ -182,6 +176,18 @@
   </si>
   <si>
     <t>This, my story, which I have related, if it be sweet, (or) if it be not sweet, take some elsewhere, and let some come back to me.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ye'see, "Ananse eno no o? " </t>
+  </si>
+  <si>
+    <t>They said, "Ananse, what about it? "</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ananse left that place; he has fled.</t>
+  </si>
+  <si>
+    <t>Ananse firii ho; wadwane.</t>
   </si>
 </sst>
 </file>
@@ -552,10 +558,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -578,7 +584,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -586,7 +592,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -594,7 +600,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -602,7 +608,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
@@ -610,7 +616,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="29" x14ac:dyDescent="0.35">
@@ -618,7 +624,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="29" x14ac:dyDescent="0.35">
@@ -626,7 +632,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
@@ -634,151 +640,159 @@
         <v>9</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B14" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="2" t="s">
+    <row r="16" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A16" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B19" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A20" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>43</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A19" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A24" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A25" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A24" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A25" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="B25" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A28" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A27" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>53</v>
+      <c r="B28" s="2" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
